--- a/srv/src/main/resources/template/test.xlsx
+++ b/srv/src/main/resources/template/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stanley\Desktop\Project\UMC\01.Tech\USAP\umc-webedi\srv\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA4B371-0BD7-4DAC-A477-7649FD432320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021F98C-62BD-4F7F-B55B-15E773144655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3FFA0326-35EA-4474-BFA3-28DEFF0F6F61}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{3FFA0326-35EA-4474-BFA3-28DEFF0F6F61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>{template}模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,7 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.amt}</t>
+    <t>模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +462,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -476,51 +472,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="E5" t="e">
+        <f>C5*D5</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26">
+      <c r="E26" t="e">
         <f>SUM(E5)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>